--- a/examples/sources/data/unsolved/to_schedule/2019-02-05.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-05.xlsx
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>43501</v>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
         <v>43501</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
         <v>43501</v>
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2">
         <v>43501</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" s="2">
         <v>43501</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -4063,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" s="2">
         <v>43501</v>
@@ -4145,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" s="2">
         <v>43501</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" s="2">
         <v>43501</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O107" s="2">
         <v>43501</v>
@@ -5652,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O111" s="2">
         <v>43501</v>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="N125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" s="2">
         <v>43501</v>
